--- a/Helper Files/Kalyar hr payroll.xlsx
+++ b/Helper Files/Kalyar hr payroll.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9884480B-B4D3-488F-A1F8-41DECA3AF6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{D563C1E0-7609-49CC-8771-4A490A5D23B7}">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{E4D6FC62-B7EC-4A12-BF25-43094793B734}">
+    <comment ref="B68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0" shapeId="0" xr:uid="{1E378119-3411-417B-895E-257DD2A6DEE2}">
+    <comment ref="B90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,12 +99,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{BC484587-29AF-4F38-9A12-3AF2105D3057}">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{8C41367F-F697-422D-88C2-E9F5F7A34912}">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{2CA5E276-2C49-4BA4-8311-A0B7B5125E7A}">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1703,23 +1702,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1755,23 +1737,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1947,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4947,7 +4912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DC251-22A4-49D3-B819-EAF75E1261C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4959,11 +4924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,7 +4936,7 @@
     <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -5003,7 +4968,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5026,7 +4992,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5043,7 +5009,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5060,7 +5026,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5077,7 +5043,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -5097,7 +5063,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -5120,7 +5086,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5103,7 @@
         <v>44139</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -5154,7 +5120,7 @@
         <v>44139</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -5177,7 +5143,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -5197,7 +5163,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +5180,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +5200,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5220,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -5275,7 +5241,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -5295,7 +5261,7 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -5315,7 +5281,7 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +5304,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -5361,7 +5327,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -5384,7 +5350,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5370,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -5421,7 +5387,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +5407,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -5458,7 +5424,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -5478,7 +5444,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -5495,7 +5461,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -5515,7 +5481,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -5535,7 +5501,7 @@
         <v>44154</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -5552,7 +5518,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -5569,7 +5535,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -5586,7 +5552,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -5606,7 +5572,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -5629,7 +5595,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -5649,7 +5615,7 @@
         <v>44148</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5669,7 +5635,7 @@
         <v>44150</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -5686,7 +5652,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -5703,7 +5669,7 @@
         <v>44154</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -5720,7 +5686,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -5740,7 +5706,7 @@
         <v>44158</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -6153,7 +6119,8 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>233</v>
       </c>
@@ -6170,7 +6137,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>233</v>
       </c>
@@ -6184,7 +6151,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>233</v>
       </c>
@@ -6198,7 +6165,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>233</v>
       </c>
@@ -6212,7 +6179,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>233</v>
       </c>
@@ -6229,7 +6196,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>233</v>
       </c>
@@ -6246,7 +6213,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>233</v>
       </c>
@@ -6260,7 +6227,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>233</v>
       </c>
@@ -6280,7 +6247,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>233</v>
       </c>
@@ -6297,7 +6264,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>233</v>
       </c>
@@ -6311,7 +6278,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -6331,7 +6298,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
@@ -6351,7 +6318,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>233</v>
       </c>
@@ -6368,7 +6335,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>233</v>
       </c>
@@ -6388,7 +6355,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>233</v>
       </c>
@@ -6405,7 +6372,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>233</v>
       </c>
@@ -6422,7 +6389,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>233</v>
       </c>
@@ -6439,7 +6406,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>233</v>
       </c>
@@ -6453,7 +6420,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>233</v>
       </c>
@@ -6473,7 +6440,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>233</v>
       </c>
@@ -6487,7 +6454,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>233</v>
       </c>
@@ -6504,7 +6471,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>233</v>
       </c>
@@ -6524,7 +6491,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>190</v>
       </c>
@@ -6544,7 +6511,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>190</v>
       </c>
@@ -6558,7 +6525,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>190</v>
       </c>
@@ -6578,7 +6545,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>190</v>
       </c>
@@ -6592,7 +6559,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>190</v>
       </c>
@@ -6606,7 +6573,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>190</v>
       </c>
@@ -6626,7 +6593,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>190</v>
       </c>
@@ -6640,7 +6607,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>190</v>
       </c>
@@ -6660,7 +6627,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>190</v>
       </c>
@@ -6674,7 +6641,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -6688,7 +6655,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -6702,7 +6669,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>190</v>
       </c>
@@ -6719,7 +6686,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>190</v>
       </c>
@@ -6739,7 +6706,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>190</v>
       </c>
@@ -6759,7 +6726,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>190</v>
       </c>
@@ -6773,7 +6740,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>190</v>
       </c>
@@ -6793,7 +6760,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>190</v>
       </c>
@@ -6813,7 +6780,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>190</v>
       </c>
@@ -6827,7 +6794,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
@@ -6844,7 +6811,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>190</v>
       </c>
@@ -6861,7 +6828,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>190</v>
       </c>
@@ -6878,7 +6845,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>190</v>
       </c>
@@ -6892,7 +6859,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>190</v>
       </c>
@@ -6906,7 +6873,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>190</v>
       </c>
@@ -6926,7 +6893,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>190</v>
       </c>
@@ -6946,7 +6913,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>190</v>
       </c>
@@ -6960,7 +6927,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>190</v>
       </c>
@@ -6980,7 +6947,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>190</v>
       </c>
@@ -6994,7 +6961,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>190</v>
       </c>
@@ -7014,7 +6981,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>190</v>
       </c>
@@ -7034,7 +7001,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>190</v>
       </c>
@@ -7048,7 +7015,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>190</v>
       </c>
@@ -7068,7 +7035,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>190</v>
       </c>
@@ -7088,7 +7055,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>190</v>
       </c>
@@ -7102,7 +7069,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>190</v>
       </c>
@@ -7122,7 +7089,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>190</v>
       </c>
@@ -7136,7 +7103,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>190</v>
       </c>
@@ -7156,7 +7123,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>190</v>
       </c>
@@ -7176,7 +7143,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>190</v>
       </c>
@@ -7190,7 +7157,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>190</v>
       </c>
@@ -7210,7 +7177,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>190</v>
       </c>
@@ -7224,7 +7191,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>190</v>
       </c>
@@ -7238,7 +7205,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>190</v>
       </c>
@@ -7255,7 +7222,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>190</v>
       </c>
@@ -7272,7 +7239,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>190</v>
       </c>
@@ -7286,7 +7253,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>190</v>
       </c>
@@ -7303,7 +7270,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>190</v>
       </c>
@@ -7320,7 +7287,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>190</v>
       </c>
@@ -7334,7 +7301,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>190</v>
       </c>
@@ -7351,7 +7318,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>190</v>
       </c>
@@ -7368,7 +7335,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>190</v>
       </c>
@@ -7382,7 +7349,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>190</v>
       </c>
@@ -7396,7 +7363,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>190</v>
       </c>
@@ -7413,7 +7380,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>190</v>
       </c>
@@ -7430,7 +7397,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>190</v>
       </c>
@@ -7444,7 +7411,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>190</v>
       </c>
@@ -7461,7 +7428,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>190</v>
       </c>
@@ -7478,7 +7445,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>190</v>
       </c>
@@ -7492,7 +7459,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>190</v>
       </c>
@@ -7506,7 +7473,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>190</v>
       </c>
@@ -7523,7 +7490,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>190</v>
       </c>
@@ -7540,7 +7507,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>190</v>
       </c>
@@ -7557,7 +7524,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>190</v>
       </c>
@@ -7571,7 +7538,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>190</v>
       </c>
@@ -7585,7 +7552,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>190</v>
       </c>
@@ -7602,7 +7569,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>190</v>
       </c>
@@ -7622,7 +7589,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>190</v>
       </c>
@@ -7636,7 +7603,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>190</v>
       </c>
@@ -7650,7 +7617,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>190</v>
       </c>
@@ -7664,7 +7631,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>190</v>
       </c>
@@ -7684,7 +7651,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>190</v>
       </c>
@@ -7701,7 +7668,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>190</v>
       </c>
@@ -7725,7 +7692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
